--- a/Autism_Resources_by_State.xlsx
+++ b/Autism_Resources_by_State.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CJ\Documents\My Projects\autism_resources_by_state\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44ADC1C-C131-4613-9F33-3CECCD8BE882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A883F416-73AF-4ECE-A6D9-0F796A443181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="1104" windowWidth="20424" windowHeight="12576" xr2:uid="{BB264F5C-C314-4413-9F4B-48BA520C8538}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{BB264F5C-C314-4413-9F4B-48BA520C8538}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="382">
   <si>
     <t>Resource</t>
   </si>
@@ -570,6 +570,618 @@
   </si>
   <si>
     <t>https://www2.ed.gov/about/offices/list/osers/index.html</t>
+  </si>
+  <si>
+    <t>Supported Employment</t>
+  </si>
+  <si>
+    <t>https://mh.alabama.gov/division-of-developmental-disabilities/office-of-supported-employment/</t>
+  </si>
+  <si>
+    <t>Vocational Rehabilitation</t>
+  </si>
+  <si>
+    <t>https://labor.alaska.gov/dvr/</t>
+  </si>
+  <si>
+    <t>https://des.az.gov/services/employment/rehabilitation-services/vocational-rehabilitation-vr</t>
+  </si>
+  <si>
+    <t>https://dws.arkansas.gov/ar-rehabilitation-services/</t>
+  </si>
+  <si>
+    <t>Arkanasa Rehabilitation Services (ARS)</t>
+  </si>
+  <si>
+    <t>California Employee Development Department</t>
+  </si>
+  <si>
+    <t>https://edd.ca.gov/en/jobs_and_training/Services_for_People_with_Disabilities/</t>
+  </si>
+  <si>
+    <t>Division of Vocational Rehabilitation</t>
+  </si>
+  <si>
+    <t>https://dvr.colorado.gov/</t>
+  </si>
+  <si>
+    <t>https://portal.ct.gov/services/health-and-human-services/disability-services/employment-for-persons-with-disabilities</t>
+  </si>
+  <si>
+    <t>Employment for Person's with Disabilities</t>
+  </si>
+  <si>
+    <t>Pathways to Employment</t>
+  </si>
+  <si>
+    <t>https://dhss.delaware.gov/ddds/emp_first/</t>
+  </si>
+  <si>
+    <t>Department on Disability Services</t>
+  </si>
+  <si>
+    <t>https://dds.dc.gov/service/supported-employment-dda-and-rsa</t>
+  </si>
+  <si>
+    <t>Florida Autism Resources</t>
+  </si>
+  <si>
+    <t>https://www.floridahealth.gov/programs-and-services/people-with-disabilities/bright-expectations/conditions/autism.html</t>
+  </si>
+  <si>
+    <t>Georgia Vocational Rehabilitation Agency</t>
+  </si>
+  <si>
+    <t>https://gvs.georgia.gov/</t>
+  </si>
+  <si>
+    <t>Lanakila Pacific</t>
+  </si>
+  <si>
+    <t>https://lanakilapacific.org/careerpath/</t>
+  </si>
+  <si>
+    <t>Extended Employment Services</t>
+  </si>
+  <si>
+    <t>https://healthandwelfare.idaho.gov/services-programs/about-extended-employment-services</t>
+  </si>
+  <si>
+    <t>https://careers.illinois.gov/employment-resources/disabpgm/disabled-workers-trainee-program.html</t>
+  </si>
+  <si>
+    <t>Disabled Workers Trainee Program</t>
+  </si>
+  <si>
+    <t>https://www.in.gov/fssa/ddrs/rehabilitation-employment/vocational-rehabilitation-employment/</t>
+  </si>
+  <si>
+    <t>Vocational Rehabilitation / Employment</t>
+  </si>
+  <si>
+    <t>https://workforce.iowa.gov/vr</t>
+  </si>
+  <si>
+    <t>Vocational Rehabilitation (VR) Services</t>
+  </si>
+  <si>
+    <t>Kansas Vocational Rehabilitation Services</t>
+  </si>
+  <si>
+    <t>https://www.dcf.ks.gov/services/RS/Pages/Employment-Services.aspx</t>
+  </si>
+  <si>
+    <t>Life Skills Enhancement Program</t>
+  </si>
+  <si>
+    <t>https://kcc.ky.gov/Vocational-Rehabilitation/seeking-services/cdpvtc/programs/Pages/Life-Skills-Enhancement-Program-(LEP).aspx</t>
+  </si>
+  <si>
+    <t>Lousiana Rehabilitation Services</t>
+  </si>
+  <si>
+    <t>https://www.laworks.net/WorkforceDev/LRS/LRS_Main.asp</t>
+  </si>
+  <si>
+    <t>Employment Services for People with Disabilities</t>
+  </si>
+  <si>
+    <t>https://www.maine.gov/labor/careerctr/docs/employment_services_for_people_with_disabilities_brochure.pdf</t>
+  </si>
+  <si>
+    <t>https://dors.maryland.gov/consumers/WTC/Pages/default.aspx</t>
+  </si>
+  <si>
+    <t>Maryland Deparment of Rehabilitation Services</t>
+  </si>
+  <si>
+    <t>Career Programs and Services</t>
+  </si>
+  <si>
+    <t>https://www.mass.gov/career-programs-and-services</t>
+  </si>
+  <si>
+    <t>Michigan Career and Technical Institute</t>
+  </si>
+  <si>
+    <t>https://www.michigan.gov/leo/bureaus-agencies/mcti</t>
+  </si>
+  <si>
+    <t>https://mn.gov/autism/about-autism/training-and-events/</t>
+  </si>
+  <si>
+    <t>Minnesota Autism Portal</t>
+  </si>
+  <si>
+    <t>AbilityWorks</t>
+  </si>
+  <si>
+    <t>https://www.mdrs.ms.gov/vocational-rehabilitation/abilityworks</t>
+  </si>
+  <si>
+    <t>https://dese.mo.gov/adult-learning-rehabilitation-services/vocational-rehabilitation</t>
+  </si>
+  <si>
+    <t>https://dphhs.mt.gov/detd/preets/resources</t>
+  </si>
+  <si>
+    <t>Montanta Department of Public Health and Human Services</t>
+  </si>
+  <si>
+    <t>Nebraska Vocational Rehabilitation</t>
+  </si>
+  <si>
+    <t>https://vr.nebraska.gov/</t>
+  </si>
+  <si>
+    <t>Vocational Rehabilitation Nevada</t>
+  </si>
+  <si>
+    <t>https://vrnevada.nv.gov/</t>
+  </si>
+  <si>
+    <t>Employment for Individuals with Disabilities</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.nh.gov/programs-services/disability-care/employment-individuals-disabilities</t>
+  </si>
+  <si>
+    <t>https://www.nj.gov/labor/career-services/special-services/individuals-with-disabilities/</t>
+  </si>
+  <si>
+    <t>Vocational Rehabilitation Services</t>
+  </si>
+  <si>
+    <t>Ticket to Work Program</t>
+  </si>
+  <si>
+    <t>https://www.ssa.gov/work/</t>
+  </si>
+  <si>
+    <t>Autism New Mexico Health Care Authority</t>
+  </si>
+  <si>
+    <t>https://www.hca.nm.gov/autism/</t>
+  </si>
+  <si>
+    <t>Career Services for Persons with Disabilities</t>
+  </si>
+  <si>
+    <t>https://dol.ny.gov/career-services/career-services-for-persons-with-disabilities</t>
+  </si>
+  <si>
+    <t>https://www.ncdhhs.gov/eipd</t>
+  </si>
+  <si>
+    <t>Employment and Independence for People with Disabilities</t>
+  </si>
+  <si>
+    <t>https://www.hhs.nd.gov/vr</t>
+  </si>
+  <si>
+    <t>North Dakota Vocational Rehabilitation</t>
+  </si>
+  <si>
+    <t>https://ood.ohio.gov/information-for-individuals/services/vocational-rehabilitation-services/vocational-rehabilitation</t>
+  </si>
+  <si>
+    <t>Oklahoma Rehabilitation Services</t>
+  </si>
+  <si>
+    <t>https://oklahoma.gov/okdrs/job-seekers.html</t>
+  </si>
+  <si>
+    <t>https://www.oregon.gov/odhs/vr/pages/default.aspx</t>
+  </si>
+  <si>
+    <t>Department of Human Services</t>
+  </si>
+  <si>
+    <t>https://www.pa.gov/agencies/dhs/resources/intellectual-disabilities-autism/we-can-work/find-a-job.html</t>
+  </si>
+  <si>
+    <t>Rhode Island Employment Resources</t>
+  </si>
+  <si>
+    <t>https://gcd.ri.gov/employment/employment-resources</t>
+  </si>
+  <si>
+    <t>South Carolina Training and Programs</t>
+  </si>
+  <si>
+    <t>https://www.dew.sc.gov/workforce-partners/training-and-programs</t>
+  </si>
+  <si>
+    <t>Job Services for Adults with Disabilities</t>
+  </si>
+  <si>
+    <t>https://dhs.sd.gov/en/rehabilitation-services/job-services-for-adults-with-disabilities</t>
+  </si>
+  <si>
+    <t>Transition Services for Students With Disabilities</t>
+  </si>
+  <si>
+    <t>https://dakotaathome.sd.gov/search?query=HH-8000.8500&amp;query_label=Transition%20Services%20for%20Students%20With%20Disabilities&amp;query_type=taxonomy</t>
+  </si>
+  <si>
+    <t>https://www.tn.gov/humanservices/ds/vocational-rehabilitation.html</t>
+  </si>
+  <si>
+    <t>Vocational Rehabilitation Program</t>
+  </si>
+  <si>
+    <t>https://www.twc.texas.gov/programs/vocational-rehabilitation</t>
+  </si>
+  <si>
+    <t>https://jobs.utah.gov/usor/vr/pathways.html</t>
+  </si>
+  <si>
+    <t>State Employment Pathways for People with Disabilities</t>
+  </si>
+  <si>
+    <t>https://jobs.utah.gov/usor/vr/index.html</t>
+  </si>
+  <si>
+    <t>Supported Employment Program</t>
+  </si>
+  <si>
+    <t>https://ddsd.vermont.gov/supported-employment-program</t>
+  </si>
+  <si>
+    <t>Division of Rehabilitative Services</t>
+  </si>
+  <si>
+    <t>https://www.dars.virginia.gov/essp/default.htm</t>
+  </si>
+  <si>
+    <t>https://www.dshs.wa.gov/dvr</t>
+  </si>
+  <si>
+    <t>Intellectual and/or Developmental Disabilities Waiver</t>
+  </si>
+  <si>
+    <t>https://dhhr.wv.gov/bms/Programs/WaiverPrograms/IDDW/Pages/default.aspx</t>
+  </si>
+  <si>
+    <t>https://dwd.wisconsin.gov/dvr/</t>
+  </si>
+  <si>
+    <t>https://dws.wyo.gov/dws-division/vocational-rehabilitation/</t>
+  </si>
+  <si>
+    <t>United Ability</t>
+  </si>
+  <si>
+    <t>https://www.unitedability.org/programs/united-ability-employment-services/</t>
+  </si>
+  <si>
+    <t>Alaska Autism Resource Center</t>
+  </si>
+  <si>
+    <t>https://www.alaskaarc.org/</t>
+  </si>
+  <si>
+    <t>Seeds for Autism</t>
+  </si>
+  <si>
+    <t>https://www.seedsforautism.org/</t>
+  </si>
+  <si>
+    <t>Open Avenues</t>
+  </si>
+  <si>
+    <t>https://www.openavenues.org/</t>
+  </si>
+  <si>
+    <t>California Autism Foundation</t>
+  </si>
+  <si>
+    <t>https://www.calautism.org/programs/employment-programs/</t>
+  </si>
+  <si>
+    <t>https://www.buildwithtact.org/</t>
+  </si>
+  <si>
+    <t>Teaching the Autism Community Trades</t>
+  </si>
+  <si>
+    <t>UCONN ED</t>
+  </si>
+  <si>
+    <t>https://uconnucedd.org/school-age-and-post-secondary-projects/discover-learn-work/</t>
+  </si>
+  <si>
+    <t>Autism Delaware</t>
+  </si>
+  <si>
+    <t>https://www.autismdelaware.org/about-us/work-with-us/direct-support-professional/</t>
+  </si>
+  <si>
+    <t>Broad Futures</t>
+  </si>
+  <si>
+    <t>https://broadfutures.org/</t>
+  </si>
+  <si>
+    <t>https://www.autismfl.org/training-in-transition</t>
+  </si>
+  <si>
+    <t>Autism Society Florida</t>
+  </si>
+  <si>
+    <t>Autism Toolkit Georgia</t>
+  </si>
+  <si>
+    <t>https://www.autismtoolkit.org/resource/older-children-and-young-adults-with-asd-job-training-and-independent-living/</t>
+  </si>
+  <si>
+    <t>https://www.worknowhawaii.org/</t>
+  </si>
+  <si>
+    <t>Work Now Hawaii</t>
+  </si>
+  <si>
+    <t>https://idahocdhd.org/Training/webinars</t>
+  </si>
+  <si>
+    <t>Idaho CDHD</t>
+  </si>
+  <si>
+    <t>Turning Pointe Autism Foundation</t>
+  </si>
+  <si>
+    <t>https://turningpointeautismfoundation.org/employment-training-program/</t>
+  </si>
+  <si>
+    <t>https://www.erskinegreeninstitute.org/</t>
+  </si>
+  <si>
+    <t>Erskine Green Training Institute</t>
+  </si>
+  <si>
+    <t>Transition Iowa</t>
+  </si>
+  <si>
+    <t>https://www.transitioniowa.org/resources/display?id=7b3a744e-3278-43c6-ab74-7e8d988c8106</t>
+  </si>
+  <si>
+    <t>Kansas City Autism Training Center</t>
+  </si>
+  <si>
+    <t>https://www.kcatc.org/</t>
+  </si>
+  <si>
+    <t>Kentucky Autism Training Center</t>
+  </si>
+  <si>
+    <t>https://louisville.edu/education/kyautismtraining/</t>
+  </si>
+  <si>
+    <t>https://brccf.org/pse.php</t>
+  </si>
+  <si>
+    <t>Program for Successful Employment (PSE)</t>
+  </si>
+  <si>
+    <t>Maine Health</t>
+  </si>
+  <si>
+    <t>https://www.mainehealth.org/care-services/behavioral-health-care/developmental-disorder-care-mainehealth-behavioral-health/developmental-disorder-careers-mainehealth-behavioral-health</t>
+  </si>
+  <si>
+    <t>All Star ABA</t>
+  </si>
+  <si>
+    <t>https://www.allstaraba.org/maryland-autism-employment</t>
+  </si>
+  <si>
+    <t>Lifeworks ARC</t>
+  </si>
+  <si>
+    <t>https://lifeworksarc.org/service/job-placement/</t>
+  </si>
+  <si>
+    <t>Autism Alliance of Michigan</t>
+  </si>
+  <si>
+    <t>https://autismallianceofmichigan.org/service/employment-supports/</t>
+  </si>
+  <si>
+    <t>Autism Society of Minnesota</t>
+  </si>
+  <si>
+    <t>https://ausm.org/resource_category/employment-services/</t>
+  </si>
+  <si>
+    <t>Mississippi Centers for Autism</t>
+  </si>
+  <si>
+    <t>https://www.mscentersforautism.org/</t>
+  </si>
+  <si>
+    <t>https://riseservicesincmo.org/vocational-training-adults-disabilities/</t>
+  </si>
+  <si>
+    <t>RISE Services Inc Missouri</t>
+  </si>
+  <si>
+    <t>Ability Montana</t>
+  </si>
+  <si>
+    <t>https://abilitymt.org/</t>
+  </si>
+  <si>
+    <t>https://autismcenterofnebraska.org/vocational-services-for-individuals-with-disabilities/</t>
+  </si>
+  <si>
+    <t>Vocational Services for Individuals with Disabilties</t>
+  </si>
+  <si>
+    <t>Opportunity Village</t>
+  </si>
+  <si>
+    <t>https://www.opportunityvillage.org/disability-programs-and-services</t>
+  </si>
+  <si>
+    <t>Seven Hills</t>
+  </si>
+  <si>
+    <t>https://www.sevenhills.org/programs/workforce-readiness-and-employment</t>
+  </si>
+  <si>
+    <t>Spectrum Works</t>
+  </si>
+  <si>
+    <t>https://www.spectrumworks.org/programs</t>
+  </si>
+  <si>
+    <t>Project HIRE</t>
+  </si>
+  <si>
+    <t>https://www.arcnj.org/programs/project-hire/project_hire.html</t>
+  </si>
+  <si>
+    <t>Adelante</t>
+  </si>
+  <si>
+    <t>https://goadelante.org/disability-services/employment-options/</t>
+  </si>
+  <si>
+    <t>Job Path NYC</t>
+  </si>
+  <si>
+    <t>https://www.jobpathnyc.org/</t>
+  </si>
+  <si>
+    <t>https://www.autismsociety-nc.org/employment-supports/</t>
+  </si>
+  <si>
+    <t>Autism Society of North Carolina</t>
+  </si>
+  <si>
+    <t>North Dakota Autism Center</t>
+  </si>
+  <si>
+    <t>https://ndautismcenter.org/jobs/</t>
+  </si>
+  <si>
+    <t>Milestones Autism Resources</t>
+  </si>
+  <si>
+    <t>https://www.milestones.org/get-started/for-individuals/employment</t>
+  </si>
+  <si>
+    <t>Oklahoma Autism Network</t>
+  </si>
+  <si>
+    <t>https://okautism.org/Provider-Directory/category/vocational-job-training</t>
+  </si>
+  <si>
+    <t>https://aasapdx.org/adult-providers-places-oregon/portland-employment-resources/</t>
+  </si>
+  <si>
+    <t>Portland Employment Resources</t>
+  </si>
+  <si>
+    <t>Autism Society Northwestern Pennsylvania</t>
+  </si>
+  <si>
+    <t>https://www.autismnwpa.org/programs/employment-resources/</t>
+  </si>
+  <si>
+    <t>Office of Vocational Rehabilitation</t>
+  </si>
+  <si>
+    <t>https://paautism.org/resource/office-of-vocational-rehabilitation-jobs-for-all-initiative/</t>
+  </si>
+  <si>
+    <t>The Groden Network</t>
+  </si>
+  <si>
+    <t>https://grodennetwork.org/our-programs/programs-for-adults/the-cove-center/employment-services-program</t>
+  </si>
+  <si>
+    <t>Able-SC</t>
+  </si>
+  <si>
+    <t>https://www.able-sc.org/get-support/employment-programs/</t>
+  </si>
+  <si>
+    <t>Autism Career Training</t>
+  </si>
+  <si>
+    <t>https://autismcareertraining.org/trainee-application/</t>
+  </si>
+  <si>
+    <t>Disability Resources</t>
+  </si>
+  <si>
+    <t>https://www.disabilityresources.org/south-dakota.html</t>
+  </si>
+  <si>
+    <t>https://www.texasautismsociety.org/employment-resources/</t>
+  </si>
+  <si>
+    <t>Autism Society Texas</t>
+  </si>
+  <si>
+    <t>https://nextworkacademy.org/nextwork-employment-services/</t>
+  </si>
+  <si>
+    <t>Next Work Employment Services</t>
+  </si>
+  <si>
+    <t>HireAbility Vermont</t>
+  </si>
+  <si>
+    <t>https://www.hireabilityvt.com/</t>
+  </si>
+  <si>
+    <t>Autism Society of Central Virginia</t>
+  </si>
+  <si>
+    <t>https://ascv.org/resources/resource-directory/employment-services-resources/</t>
+  </si>
+  <si>
+    <t>Washington Autism Alliance</t>
+  </si>
+  <si>
+    <t>https://washingtonautismalliance.org/supported-employment-community-inclusion/</t>
+  </si>
+  <si>
+    <t>Center for Excellence in Disabilities</t>
+  </si>
+  <si>
+    <t>https://cedwvu.org/resources/autism-resources-in-west-virginia/</t>
+  </si>
+  <si>
+    <t>Autism Society South Central Wisconsin</t>
+  </si>
+  <si>
+    <t>https://autismsouthcentral.org/resource-directory/wpbdp_category/supported-employment/</t>
+  </si>
+  <si>
+    <t>https://www.disabilityresources.org/wyoming.html</t>
   </si>
 </sst>
 </file>
@@ -614,9 +1226,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -636,8 +1250,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34C68183-241C-4606-AC66-490183F44371}" name="Table1" displayName="Table1" ref="A1:C62" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A1:C62" xr:uid="{34C68183-241C-4606-AC66-490183F44371}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34C68183-241C-4606-AC66-490183F44371}" name="Table1" displayName="Table1" ref="A1:C169" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A1:C169" xr:uid="{34C68183-241C-4606-AC66-490183F44371}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{174EA3CF-399B-461A-8B75-BE7E13A55A78}" name="Resource" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{3ECDFB07-8289-47C5-BD91-B708C5643E44}" name="Link" dataCellStyle="Normal"/>
@@ -964,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8DAF23-311A-4B42-861B-1D5FBACA69D7}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1656,6 +2270,1183 @@
       </c>
       <c r="C62" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1695,11 +3486,15 @@
     <hyperlink ref="A38" r:id="rId33" display="http://www.nd.gov/dhs/autism/" xr:uid="{D058C864-D9B2-4EBE-86FB-6DED94C97AAD}"/>
     <hyperlink ref="A57" r:id="rId34" display="https://www2.ed.gov/about/offices/list/osers/index.html?src=oc" xr:uid="{E9D9D38D-C4ED-47DD-A1FD-7D148ABB78F4}"/>
     <hyperlink ref="B57" r:id="rId35" xr:uid="{8FF954CD-4B4A-46E8-909F-92EDAB91351A}"/>
+    <hyperlink ref="B76" r:id="rId36" xr:uid="{1130BB5A-3DE6-4DDC-842B-23F49146C9B3}"/>
+    <hyperlink ref="B77" r:id="rId37" xr:uid="{4B48568D-CAF6-43BC-91D5-E4B48071134A}"/>
+    <hyperlink ref="B78" r:id="rId38" xr:uid="{ECE697D1-7B83-4EFA-A977-F62E8DAC1D22}"/>
+    <hyperlink ref="B91" r:id="rId39" xr:uid="{83E0FFAC-DB97-4005-9C56-C5DA1AE855F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId40"/>
   <tableParts count="1">
-    <tablePart r:id="rId37"/>
+    <tablePart r:id="rId41"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Autism_Resources_by_State.xlsx
+++ b/Autism_Resources_by_State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CJ\Documents\My Projects\autism_resources_by_state\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A883F416-73AF-4ECE-A6D9-0F796A443181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D05C20-5DF2-4ECC-A350-89F3A1DAEB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{BB264F5C-C314-4413-9F4B-48BA520C8538}"/>
   </bookViews>
@@ -623,12 +623,6 @@
     <t>https://dds.dc.gov/service/supported-employment-dda-and-rsa</t>
   </si>
   <si>
-    <t>Florida Autism Resources</t>
-  </si>
-  <si>
-    <t>https://www.floridahealth.gov/programs-and-services/people-with-disabilities/bright-expectations/conditions/autism.html</t>
-  </si>
-  <si>
     <t>Georgia Vocational Rehabilitation Agency</t>
   </si>
   <si>
@@ -1182,6 +1176,12 @@
   </si>
   <si>
     <t>https://www.disabilityresources.org/wyoming.html</t>
+  </si>
+  <si>
+    <t>Training Program for Adults with Autism</t>
+  </si>
+  <si>
+    <t>https://jacksoncountyfl.gov/autism-training/</t>
   </si>
 </sst>
 </file>
@@ -1580,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8DAF23-311A-4B42-861B-1D5FBACA69D7}">
   <dimension ref="A1:C169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2373,10 +2373,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>195</v>
+        <v>380</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>196</v>
+        <v>381</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>123</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>124</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>125</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>126</v>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>127</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>128</v>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>129</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>130</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>131</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>132</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>133</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>134</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>135</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>136</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>137</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>138</v>
@@ -2552,7 +2552,7 @@
         <v>180</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>139</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>140</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>141</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>142</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>143</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>144</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>145</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>146</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>147</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>148</v>
@@ -2662,7 +2662,7 @@
         <v>180</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>149</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>150</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>151</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>152</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>153</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>154</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>155</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>155</v>
@@ -2750,7 +2750,7 @@
         <v>180</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>156</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>157</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>158</v>
@@ -2783,7 +2783,7 @@
         <v>180</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>158</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>159</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>160</v>
@@ -2816,7 +2816,7 @@
         <v>187</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>161</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>162</v>
@@ -2838,7 +2838,7 @@
         <v>180</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>163</v>
@@ -2849,7 +2849,7 @@
         <v>180</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>13</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>2</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>115</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>116</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>117</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>118</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>119</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>120</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>121</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>122</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>22</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>123</v>
@@ -2978,10 +2978,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>124</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>125</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>126</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>127</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>128</v>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>129</v>
@@ -3044,10 +3044,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>130</v>
@@ -3055,10 +3055,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>131</v>
@@ -3066,10 +3066,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>132</v>
@@ -3077,10 +3077,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>133</v>
@@ -3088,10 +3088,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>134</v>
@@ -3099,10 +3099,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>135</v>
@@ -3110,10 +3110,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>136</v>
@@ -3121,10 +3121,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>137</v>
@@ -3132,10 +3132,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>138</v>
@@ -3143,10 +3143,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>139</v>
@@ -3154,10 +3154,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>140</v>
@@ -3165,10 +3165,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>141</v>
@@ -3176,10 +3176,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>142</v>
@@ -3187,10 +3187,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>143</v>
@@ -3198,10 +3198,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>144</v>
@@ -3209,10 +3209,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>144</v>
@@ -3220,10 +3220,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>145</v>
@@ -3231,10 +3231,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>146</v>
@@ -3242,10 +3242,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>147</v>
@@ -3253,10 +3253,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>148</v>
@@ -3264,10 +3264,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>149</v>
@@ -3275,10 +3275,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>150</v>
@@ -3286,10 +3286,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>151</v>
@@ -3297,10 +3297,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>152</v>
@@ -3308,10 +3308,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>152</v>
@@ -3319,10 +3319,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>153</v>
@@ -3330,10 +3330,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>154</v>
@@ -3341,10 +3341,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>155</v>
@@ -3352,10 +3352,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>156</v>
@@ -3363,10 +3363,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>157</v>
@@ -3374,10 +3374,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>158</v>
@@ -3385,10 +3385,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>159</v>
@@ -3396,10 +3396,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>160</v>
@@ -3407,10 +3407,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>161</v>
@@ -3418,10 +3418,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>162</v>
@@ -3429,10 +3429,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>163</v>
@@ -3440,10 +3440,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>13</v>
